--- a/reports/resnet18_23_no_MMTM/prediction/9/probability_train_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/probability_train_9.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2228430360555649</v>
+        <v>0.1549144685268402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7771569490432739</v>
+        <v>0.8450855016708374</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4139221906661987</v>
+        <v>0.2100191116333008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5860778093338013</v>
+        <v>0.7899808883666992</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1927398294210434</v>
+        <v>0.1721204519271851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8072601556777954</v>
+        <v>0.8278795480728149</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1621082872152328</v>
+        <v>0.1638117730617523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.837891697883606</v>
+        <v>0.8361882567405701</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1087032109498978</v>
+        <v>0.1615034639835358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8912967443466187</v>
+        <v>0.8384965658187866</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4968565106391907</v>
+        <v>0.2453261315822601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5031435489654541</v>
+        <v>0.7546738982200623</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2436123192310333</v>
+        <v>0.1859830319881439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7563875913619995</v>
+        <v>0.8140169978141785</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2220953106880188</v>
+        <v>0.2406724393367767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7779046893119812</v>
+        <v>0.7593275904655457</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2469900399446487</v>
+        <v>0.2151744067668915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7530099153518677</v>
+        <v>0.7848255634307861</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5393643379211426</v>
+        <v>0.3175694942474365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4606357216835022</v>
+        <v>0.6824305057525635</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8813076019287109</v>
+        <v>0.7085962295532227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1186924129724503</v>
+        <v>0.2914037704467773</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3290460109710693</v>
+        <v>0.214074045419693</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6709539890289307</v>
+        <v>0.7859259843826294</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5860294103622437</v>
+        <v>0.4272609055042267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.413970559835434</v>
+        <v>0.5727391242980957</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6093965768814087</v>
+        <v>0.2174118757247925</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3906033933162689</v>
+        <v>0.7825881242752075</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2578531205654144</v>
+        <v>0.2360836863517761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.742146909236908</v>
+        <v>0.7639162540435791</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1694466769695282</v>
+        <v>0.1735595762729645</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8305532932281494</v>
+        <v>0.8264403939247131</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2090079635381699</v>
+        <v>0.1725244671106339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7909920215606689</v>
+        <v>0.8274756073951721</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4833191633224487</v>
+        <v>0.4145668745040894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5166807770729065</v>
+        <v>0.5854331851005554</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9702388048171997</v>
+        <v>0.8747979998588562</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02976121753454208</v>
+        <v>0.1252020448446274</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1682624220848083</v>
+        <v>0.1345782577991486</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8317375779151917</v>
+        <v>0.8654217720031738</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9136803150177002</v>
+        <v>0.8753644227981567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08631974458694458</v>
+        <v>0.1246355623006821</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3060587048530579</v>
+        <v>0.2489675432443619</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6939413547515869</v>
+        <v>0.7510324716567993</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1365582942962646</v>
+        <v>0.2216522693634033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8634417057037354</v>
+        <v>0.7783477306365967</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1542090177536011</v>
+        <v>0.2086151242256165</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8457909822463989</v>
+        <v>0.7913848757743835</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5477631092071533</v>
+        <v>0.5213159918785095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4522368907928467</v>
+        <v>0.4786840379238129</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1490516662597656</v>
+        <v>0.1772963404655457</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8509483337402344</v>
+        <v>0.8227036595344543</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5808007717132568</v>
+        <v>0.5142216682434082</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4191992282867432</v>
+        <v>0.4857783913612366</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9531577825546265</v>
+        <v>0.7005336284637451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04684225469827652</v>
+        <v>0.2994663417339325</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1417014598846436</v>
+        <v>0.1940796375274658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8582985401153564</v>
+        <v>0.8059203624725342</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1812668442726135</v>
+        <v>0.202921062707901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8187330961227417</v>
+        <v>0.7970789670944214</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1555140763521194</v>
+        <v>0.1432367861270905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.844485878944397</v>
+        <v>0.8567632436752319</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1671877354383469</v>
+        <v>0.1430492997169495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8328122496604919</v>
+        <v>0.8569506406784058</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1915996074676514</v>
+        <v>0.1517682373523712</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8084003925323486</v>
+        <v>0.8482317328453064</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2013427913188934</v>
+        <v>0.149829238653183</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7986571788787842</v>
+        <v>0.8501707315444946</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2259506285190582</v>
+        <v>0.2273269444704056</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7740494012832642</v>
+        <v>0.7726730704307556</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9121716022491455</v>
+        <v>0.7679578065872192</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08782844245433807</v>
+        <v>0.2320421785116196</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5271455049514771</v>
+        <v>0.556822657585144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4728544950485229</v>
+        <v>0.4431773722171783</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2845867276191711</v>
+        <v>0.2530661821365356</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7154133319854736</v>
+        <v>0.7469338178634644</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.303937703371048</v>
+        <v>0.3022347688674927</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6960623264312744</v>
+        <v>0.6977652907371521</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1457361876964569</v>
+        <v>0.144910991191864</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8542638421058655</v>
+        <v>0.8550889492034912</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.122299000620842</v>
+        <v>0.182805985212326</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8777010440826416</v>
+        <v>0.8171940445899963</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3073266744613647</v>
+        <v>0.2845368981361389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6926733255386353</v>
+        <v>0.7154630422592163</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4834964573383331</v>
+        <v>0.5049821138381958</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5165035724639893</v>
+        <v>0.4950178861618042</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.135280653834343</v>
+        <v>0.1299441754817963</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8647193908691406</v>
+        <v>0.8700557947158813</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2114270329475403</v>
+        <v>0.308550238609314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7885729670524597</v>
+        <v>0.691449761390686</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1383777111768723</v>
+        <v>0.2356806397438049</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8616223335266113</v>
+        <v>0.7643193602561951</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2183208167552948</v>
+        <v>0.2404515445232391</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7816791534423828</v>
+        <v>0.7595484852790833</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.211686834692955</v>
+        <v>0.1757486015558243</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7883131504058838</v>
+        <v>0.8242514133453369</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1609484851360321</v>
+        <v>0.1468348801136017</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8390514850616455</v>
+        <v>0.8531651496887207</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.267169862985611</v>
+        <v>0.3806453049182892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7328301072120667</v>
+        <v>0.6193547248840332</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2774648666381836</v>
+        <v>0.2567604780197144</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7225351333618164</v>
+        <v>0.7432395219802856</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1698498725891113</v>
+        <v>0.1780394613742828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8301501274108887</v>
+        <v>0.8219605684280396</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1740669161081314</v>
+        <v>0.1156130954623222</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8259330987930298</v>
+        <v>0.8843868970870972</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7952253818511963</v>
+        <v>0.7021918892860413</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2047746032476425</v>
+        <v>0.2978081107139587</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1801628470420837</v>
+        <v>0.1416797935962677</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8198370933532715</v>
+        <v>0.8583202362060547</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9433528184890747</v>
+        <v>0.7742868065834045</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0566471628844738</v>
+        <v>0.2257131934165955</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4177951216697693</v>
+        <v>0.3654542565345764</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5822048783302307</v>
+        <v>0.6345458030700684</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1267548501491547</v>
+        <v>0.1214143261313438</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8732451200485229</v>
+        <v>0.8785856962203979</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3659718632698059</v>
+        <v>0.2082264870405197</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6340281367301941</v>
+        <v>0.7917735576629639</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.09941231459379196</v>
+        <v>0.125335693359375</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9005876779556274</v>
+        <v>0.874664306640625</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2560722231864929</v>
+        <v>0.3414194583892822</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7439277172088623</v>
+        <v>0.6585805416107178</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1460230946540833</v>
+        <v>0.1922549903392792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8539769649505615</v>
+        <v>0.8077450394630432</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9443384408950806</v>
+        <v>0.8828541040420532</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05566155910491943</v>
+        <v>0.117145910859108</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3784837424755096</v>
+        <v>0.2924724221229553</v>
       </c>
       <c r="C65" t="n">
-        <v>0.621516227722168</v>
+        <v>0.7075275182723999</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6314847469329834</v>
+        <v>0.6057589054107666</v>
       </c>
       <c r="C66" t="n">
-        <v>0.368515282869339</v>
+        <v>0.3942411243915558</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2934189438819885</v>
+        <v>0.3904134631156921</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7065809965133667</v>
+        <v>0.6095865368843079</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.978427529335022</v>
+        <v>0.8969796895980835</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02157245576381683</v>
+        <v>0.1030203551054001</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.137502521276474</v>
+        <v>0.1410107016563416</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8624975085258484</v>
+        <v>0.8589892983436584</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2960771918296814</v>
+        <v>0.2529996037483215</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7039228081703186</v>
+        <v>0.7470003366470337</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2235636711120605</v>
+        <v>0.1357207447290421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7764363884925842</v>
+        <v>0.8642792701721191</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3666709065437317</v>
+        <v>0.214731365442276</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6333290934562683</v>
+        <v>0.7852686047554016</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9135591983795166</v>
+        <v>0.8713182210922241</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0864407867193222</v>
+        <v>0.1286817491054535</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8414621949195862</v>
+        <v>0.5936164855957031</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1585377752780914</v>
+        <v>0.4063835740089417</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4322969317436218</v>
+        <v>0.2983593940734863</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5677030682563782</v>
+        <v>0.7016406059265137</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3988882005214691</v>
+        <v>0.2481526881456375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6011117696762085</v>
+        <v>0.7518472671508789</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2133025228977203</v>
+        <v>0.1692606061697006</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7866975069046021</v>
+        <v>0.8307393789291382</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4249383807182312</v>
+        <v>0.3910811841487885</v>
       </c>
       <c r="C78" t="n">
-        <v>0.575061559677124</v>
+        <v>0.6089188456535339</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.33418869972229</v>
+        <v>0.3032665550708771</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66581130027771</v>
+        <v>0.6967334747314453</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1744493842124939</v>
+        <v>0.1667727082967758</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8255506157875061</v>
+        <v>0.833227276802063</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4278953969478607</v>
+        <v>0.4084369242191315</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5721046328544617</v>
+        <v>0.5915631055831909</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8558390140533447</v>
+        <v>0.6587045788764954</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1441609710454941</v>
+        <v>0.3412954211235046</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1690189987421036</v>
+        <v>0.1791577786207199</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8309810161590576</v>
+        <v>0.8208422660827637</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.233134925365448</v>
+        <v>0.1858969926834106</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7668650150299072</v>
+        <v>0.8141030073165894</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.5200368165969849</v>
+        <v>0.5468470454216003</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4799631834030151</v>
+        <v>0.453152984380722</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1655527353286743</v>
+        <v>0.2598116993904114</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8344473242759705</v>
+        <v>0.7401883006095886</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2336563766002655</v>
+        <v>0.1467203199863434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7663435935974121</v>
+        <v>0.853279709815979</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2437719702720642</v>
+        <v>0.2029866874217987</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7562280893325806</v>
+        <v>0.7970132827758789</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1376376003026962</v>
+        <v>0.1795593053102493</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8623623847961426</v>
+        <v>0.8204407691955566</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1787590831518173</v>
+        <v>0.1815078556537628</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8212409019470215</v>
+        <v>0.8184921145439148</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1039566695690155</v>
+        <v>0.1417500823736191</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8960433602333069</v>
+        <v>0.8582499027252197</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.5372146368026733</v>
+        <v>0.3184440135955811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4627853333950043</v>
+        <v>0.6815559864044189</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.47055983543396</v>
+        <v>0.2760584056377411</v>
       </c>
       <c r="C93" t="n">
-        <v>0.52944016456604</v>
+        <v>0.7239416241645813</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1436976790428162</v>
+        <v>0.1115297228097916</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8563023209571838</v>
+        <v>0.8884702920913696</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3389768004417419</v>
+        <v>0.2720405757427216</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6610231399536133</v>
+        <v>0.7279593944549561</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2275668382644653</v>
+        <v>0.1929812431335449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7724331617355347</v>
+        <v>0.8070187568664551</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2895510792732239</v>
+        <v>0.242799773812294</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7104489207267761</v>
+        <v>0.7572001814842224</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1486763060092926</v>
+        <v>0.1669376045465469</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8513237237930298</v>
+        <v>0.8330624103546143</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.2590592503547668</v>
+        <v>0.2348260879516602</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7409407496452332</v>
+        <v>0.7651739120483398</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9080978631973267</v>
+        <v>0.9659007787704468</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09190215170383453</v>
+        <v>0.03409925103187561</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8369284868240356</v>
+        <v>0.4722794592380524</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1630715131759644</v>
+        <v>0.52772057056427</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4608766138553619</v>
+        <v>0.2937852740287781</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5391234159469604</v>
+        <v>0.7062147259712219</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2349610030651093</v>
+        <v>0.236564040184021</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7650390863418579</v>
+        <v>0.763435959815979</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3001993000507355</v>
+        <v>0.4134246706962585</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6998006701469421</v>
+        <v>0.5865753293037415</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8130688667297363</v>
+        <v>0.5978856086730957</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1869311034679413</v>
+        <v>0.4021143317222595</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5473601818084717</v>
+        <v>0.2616657018661499</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4526398777961731</v>
+        <v>0.7383342981338501</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2422304749488831</v>
+        <v>0.1982817053794861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7577695250511169</v>
+        <v>0.8017182350158691</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7243605852127075</v>
+        <v>0.6819746494293213</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2756394445896149</v>
+        <v>0.3180253505706787</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.795798122882843</v>
+        <v>0.6261054277420044</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2042018324136734</v>
+        <v>0.3738946318626404</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.8384900093078613</v>
+        <v>0.5666007995605469</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1615099906921387</v>
+        <v>0.4333992600440979</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1134106889367104</v>
+        <v>0.1292230039834976</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8865892887115479</v>
+        <v>0.8707770109176636</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3081536591053009</v>
+        <v>0.3736484944820404</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6918463110923767</v>
+        <v>0.6263514757156372</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.8153131008148193</v>
+        <v>0.8034485578536987</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1846868693828583</v>
+        <v>0.1965514272451401</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4888970851898193</v>
+        <v>0.5676244497299194</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5111029148101807</v>
+        <v>0.4323755204677582</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.2394989430904388</v>
+        <v>0.2214407920837402</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7605010271072388</v>
+        <v>0.7785592079162598</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.6411696076393127</v>
+        <v>0.6473935842514038</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3588303923606873</v>
+        <v>0.3526064157485962</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1864742785692215</v>
+        <v>0.1301776915788651</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8135256767272949</v>
+        <v>0.8698223829269409</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.5340511798858643</v>
+        <v>0.525912344455719</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4659488201141357</v>
+        <v>0.474087655544281</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1250757724046707</v>
+        <v>0.1634958982467651</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8749241828918457</v>
+        <v>0.8365041017532349</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.4282933473587036</v>
+        <v>0.3623550534248352</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5717066526412964</v>
+        <v>0.6376450061798096</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.8267982006072998</v>
+        <v>0.756525993347168</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1732017993927002</v>
+        <v>0.2434739917516708</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6280614137649536</v>
+        <v>0.5228156447410583</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3719385862350464</v>
+        <v>0.4771843552589417</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2357674390077591</v>
+        <v>0.1889461129903793</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7642325162887573</v>
+        <v>0.8110538721084595</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.7142469882965088</v>
+        <v>0.6547885537147522</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2857530117034912</v>
+        <v>0.3452114462852478</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.3512300550937653</v>
+        <v>0.4175171554088593</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6487699747085571</v>
+        <v>0.5824828147888184</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.2519168853759766</v>
+        <v>0.2981374859809875</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7480831146240234</v>
+        <v>0.7018625736236572</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9386489391326904</v>
+        <v>0.6824476718902588</v>
       </c>
       <c r="C127" t="n">
-        <v>0.06135106086730957</v>
+        <v>0.3175523579120636</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1032772064208984</v>
+        <v>0.130698099732399</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8967227935791016</v>
+        <v>0.8693019151687622</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1425479352474213</v>
+        <v>0.101637676358223</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8574520349502563</v>
+        <v>0.8983623385429382</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.08326421678066254</v>
+        <v>0.1435747742652893</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9167357683181763</v>
+        <v>0.8564252257347107</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.2038725465536118</v>
+        <v>0.2623870968818665</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7961274385452271</v>
+        <v>0.7376129031181335</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2634106874465942</v>
+        <v>0.2048299461603165</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7365893125534058</v>
+        <v>0.7951700687408447</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1463044732809067</v>
+        <v>0.1720805019140244</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8536955118179321</v>
+        <v>0.8279194831848145</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9069833755493164</v>
+        <v>0.9181281924247742</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0930166095495224</v>
+        <v>0.08187181502580643</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.265431672334671</v>
+        <v>0.3407058715820312</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7345683574676514</v>
+        <v>0.6592941284179688</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.972706139087677</v>
+        <v>0.8427718877792358</v>
       </c>
       <c r="C136" t="n">
-        <v>0.02729389443993568</v>
+        <v>0.1572281420230865</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2778266072273254</v>
+        <v>0.1791548430919647</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7221733927726746</v>
+        <v>0.8208451271057129</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1011789962649345</v>
+        <v>0.1797251552343369</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8988209962844849</v>
+        <v>0.820274829864502</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.2755441665649414</v>
+        <v>0.2485481798648834</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7244558334350586</v>
+        <v>0.7514517903327942</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.8639359474182129</v>
+        <v>0.7505258321762085</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1360640972852707</v>
+        <v>0.2494742125272751</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1679499447345734</v>
+        <v>0.1914267539978027</v>
       </c>
       <c r="C141" t="n">
-        <v>0.832050085067749</v>
+        <v>0.8085732460021973</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2310430109500885</v>
+        <v>0.3133981227874756</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7689568996429443</v>
+        <v>0.6866018772125244</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1398645788431168</v>
+        <v>0.1604287028312683</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8601354360580444</v>
+        <v>0.8395712971687317</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.2616631686687469</v>
+        <v>0.1827768236398697</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7383368611335754</v>
+        <v>0.8172231912612915</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.7139532566070557</v>
+        <v>0.8719090223312378</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2860468029975891</v>
+        <v>0.1280909329652786</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.08293427526950836</v>
+        <v>0.1377784460783005</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9170657396316528</v>
+        <v>0.8622214794158936</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.197207123041153</v>
+        <v>0.1999238580465317</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8027929067611694</v>
+        <v>0.8000761270523071</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9317905902862549</v>
+        <v>0.8352639675140381</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06820935755968094</v>
+        <v>0.1647360026836395</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1147492751479149</v>
+        <v>0.1245182156562805</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8852506875991821</v>
+        <v>0.8754817247390747</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.4583729207515717</v>
+        <v>0.3630394041538239</v>
       </c>
       <c r="C150" t="n">
-        <v>0.541627049446106</v>
+        <v>0.6369605660438538</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.4346233606338501</v>
+        <v>0.2182339429855347</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5653766393661499</v>
+        <v>0.7817660570144653</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.5383313894271851</v>
+        <v>0.4203265309333801</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4616686105728149</v>
+        <v>0.5796734094619751</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.379419207572937</v>
+        <v>0.2637270390987396</v>
       </c>
       <c r="C153" t="n">
-        <v>0.620580792427063</v>
+        <v>0.736272931098938</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2084907293319702</v>
+        <v>0.1916325986385345</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7915092706680298</v>
+        <v>0.8083673715591431</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.4742098748683929</v>
+        <v>0.3454434275627136</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5257900953292847</v>
+        <v>0.6545565724372864</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.6656776070594788</v>
+        <v>0.451589822769165</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3343224227428436</v>
+        <v>0.5484101176261902</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2833413481712341</v>
+        <v>0.3604001104831696</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7166586518287659</v>
+        <v>0.6395999193191528</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.4096120893955231</v>
+        <v>0.2460473477840424</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5903878808021545</v>
+        <v>0.7539526224136353</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1494194865226746</v>
+        <v>0.225046694278717</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8505805134773254</v>
+        <v>0.7749533653259277</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.4079423844814301</v>
+        <v>0.2692072689533234</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5920575857162476</v>
+        <v>0.730792760848999</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1528872847557068</v>
+        <v>0.1686999201774597</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8471127152442932</v>
+        <v>0.8313000798225403</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2035539597272873</v>
+        <v>0.2368517816066742</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7964460849761963</v>
+        <v>0.7631481885910034</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.329950362443924</v>
+        <v>0.1697577238082886</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6700496077537537</v>
+        <v>0.8302422761917114</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5158383846282959</v>
+        <v>0.3434396386146545</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4841615855693817</v>
+        <v>0.6565603613853455</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.08643943071365356</v>
+        <v>0.1520435065031052</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9135606288909912</v>
+        <v>0.8479564785957336</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.2307057976722717</v>
+        <v>0.2280598282814026</v>
       </c>
       <c r="C166" t="n">
-        <v>0.769294261932373</v>
+        <v>0.7719401717185974</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2337407916784286</v>
+        <v>0.2191118001937866</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7662591934204102</v>
+        <v>0.7808881998062134</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.5795303583145142</v>
+        <v>0.5634645223617554</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4204696714878082</v>
+        <v>0.4365354180335999</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
